--- a/Home Covid19/Movie/MovieDB.xlsx
+++ b/Home Covid19/Movie/MovieDB.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Saleel\Desktop\New folder\Movie\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Saleel\Desktop\New folder\Home Covid19\Movie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36C8D682-20A3-4580-B8F0-31071F63B25C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA8E7AD6-B764-44A9-A42B-380673E10CDA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{E3092057-7F3E-411A-8201-69745A4B205E}"/>
   </bookViews>
@@ -1173,8 +1173,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F649B49D-55F8-46F0-BC8F-5BA8D4DD8ED7}">
   <dimension ref="B1:AL40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Z11" sqref="Z11"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Home Covid19/Movie/MovieDB.xlsx
+++ b/Home Covid19/Movie/MovieDB.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Saleel\Desktop\New folder\Home Covid19\Movie\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Saleel\Downloads\new Assignments\New Assignment on DBT\Movie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA8E7AD6-B764-44A9-A42B-380673E10CDA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90C327B3-08F3-4D8A-A028-96AEF8524546}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{E3092057-7F3E-411A-8201-69745A4B205E}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="259">
   <si>
     <t># mov_id</t>
   </si>
@@ -739,13 +739,82 @@
   </si>
   <si>
     <t>actor Table</t>
+  </si>
+  <si>
+    <t>Super Queen</t>
+  </si>
+  <si>
+    <t>Mr. Jonson</t>
+  </si>
+  <si>
+    <t>Best Man</t>
+  </si>
+  <si>
+    <t>Gun Boy</t>
+  </si>
+  <si>
+    <t>Judge</t>
+  </si>
+  <si>
+    <t>Bad Man</t>
+  </si>
+  <si>
+    <t>Villain</t>
+  </si>
+  <si>
+    <t>Murray Close</t>
+  </si>
+  <si>
+    <t>Miramax</t>
+  </si>
+  <si>
+    <t>A24</t>
+  </si>
+  <si>
+    <t>Fox Searchlight</t>
+  </si>
+  <si>
+    <t>Lionsgate</t>
+  </si>
+  <si>
+    <t>Alex Bailey</t>
+  </si>
+  <si>
+    <t>Weinstein Company</t>
+  </si>
+  <si>
+    <t>Worker</t>
+  </si>
+  <si>
+    <t>PickUP Boy</t>
+  </si>
+  <si>
+    <t>Hotel Manager</t>
+  </si>
+  <si>
+    <t>CID</t>
+  </si>
+  <si>
+    <t>Pilot</t>
+  </si>
+  <si>
+    <t>Fighter</t>
+  </si>
+  <si>
+    <t>Dancer</t>
+  </si>
+  <si>
+    <t>Father Charls</t>
+  </si>
+  <si>
+    <t>Monica Geller</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -771,6 +840,13 @@
     <font>
       <sz val="13"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -832,7 +908,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -857,6 +933,14 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1171,10 +1255,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F649B49D-55F8-46F0-BC8F-5BA8D4DD8ED7}">
-  <dimension ref="B1:AL40"/>
+  <dimension ref="B1:AL50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:H1"/>
+    <sheetView tabSelected="1" topLeftCell="D37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="X49" sqref="X49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1190,13 +1274,13 @@
     <col min="9" max="9" width="2.140625" customWidth="1"/>
     <col min="10" max="13" width="13.42578125" customWidth="1"/>
     <col min="14" max="14" width="2.140625" customWidth="1"/>
-    <col min="15" max="15" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.85546875" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="12.42578125" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="18.42578125" hidden="1" customWidth="1"/>
     <col min="18" max="18" width="2.140625" customWidth="1"/>
-    <col min="19" max="19" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="2.140625" customWidth="1"/>
+    <col min="19" max="19" width="9.85546875" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="11.28515625" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="2.140625" hidden="1" customWidth="1"/>
     <col min="22" max="22" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="7.85546875" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="22" bestFit="1" customWidth="1"/>
@@ -1403,13 +1487,13 @@
       <c r="T3" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="V3" s="2">
+      <c r="V3" s="10">
         <v>901</v>
       </c>
-      <c r="W3" s="2">
+      <c r="W3" s="10">
         <v>101</v>
       </c>
-      <c r="X3" s="1" t="s">
+      <c r="X3" s="11" t="s">
         <v>133</v>
       </c>
       <c r="Z3" s="2">
@@ -1492,13 +1576,13 @@
       <c r="T4" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="V4" s="2">
+      <c r="V4" s="10">
         <v>902</v>
       </c>
-      <c r="W4" s="2">
+      <c r="W4" s="10">
         <v>102</v>
       </c>
-      <c r="X4" s="1" t="s">
+      <c r="X4" s="11" t="s">
         <v>134</v>
       </c>
       <c r="Z4" s="2">
@@ -1581,13 +1665,13 @@
       <c r="T5" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="V5" s="2">
+      <c r="V5" s="10">
         <v>903</v>
       </c>
-      <c r="W5" s="2">
+      <c r="W5" s="10">
         <v>103</v>
       </c>
-      <c r="X5" s="1" t="s">
+      <c r="X5" s="11" t="s">
         <v>135</v>
       </c>
       <c r="Z5" s="2">
@@ -1670,13 +1754,13 @@
       <c r="T6" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="V6" s="2">
+      <c r="V6" s="10">
         <v>904</v>
       </c>
-      <c r="W6" s="2">
+      <c r="W6" s="10">
         <v>104</v>
       </c>
-      <c r="X6" s="1" t="s">
+      <c r="X6" s="11" t="s">
         <v>76</v>
       </c>
       <c r="Z6" s="2">
@@ -3309,6 +3393,15 @@
       <c r="M26" s="2" t="s">
         <v>197</v>
       </c>
+      <c r="V26" s="12">
+        <v>901</v>
+      </c>
+      <c r="W26" s="12">
+        <v>105</v>
+      </c>
+      <c r="X26" s="13" t="s">
+        <v>237</v>
+      </c>
       <c r="AC26" s="2">
         <v>911</v>
       </c>
@@ -3338,6 +3431,15 @@
       <c r="H27" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="V27" s="2">
+        <v>902</v>
+      </c>
+      <c r="W27" s="2">
+        <v>113</v>
+      </c>
+      <c r="X27" s="1" t="s">
+        <v>238</v>
+      </c>
       <c r="AC27" s="2">
         <v>908</v>
       </c>
@@ -3367,6 +3469,15 @@
       <c r="H28" s="1" t="s">
         <v>62</v>
       </c>
+      <c r="V28" s="2">
+        <v>903</v>
+      </c>
+      <c r="W28" s="2">
+        <v>122</v>
+      </c>
+      <c r="X28" s="1" t="s">
+        <v>236</v>
+      </c>
       <c r="AC28" s="2">
         <v>913</v>
       </c>
@@ -3396,6 +3507,15 @@
       <c r="H29" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="V29" s="2">
+        <v>904</v>
+      </c>
+      <c r="W29" s="2">
+        <v>111</v>
+      </c>
+      <c r="X29" s="1" t="s">
+        <v>239</v>
+      </c>
       <c r="AC29" s="2">
         <v>926</v>
       </c>
@@ -3425,6 +3545,15 @@
       <c r="H30" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="V30" s="2">
+        <v>905</v>
+      </c>
+      <c r="W30" s="2">
+        <v>121</v>
+      </c>
+      <c r="X30" s="1" t="s">
+        <v>240</v>
+      </c>
       <c r="AC30" s="2">
         <v>928</v>
       </c>
@@ -3433,6 +3562,15 @@
       </c>
     </row>
     <row r="31" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="V31" s="2">
+        <v>906</v>
+      </c>
+      <c r="W31" s="2">
+        <v>101</v>
+      </c>
+      <c r="X31" s="1" t="s">
+        <v>241</v>
+      </c>
       <c r="AC31" s="2">
         <v>918</v>
       </c>
@@ -3441,6 +3579,15 @@
       </c>
     </row>
     <row r="32" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="V32" s="2">
+        <v>907</v>
+      </c>
+      <c r="W32" s="2">
+        <v>101</v>
+      </c>
+      <c r="X32" s="1" t="s">
+        <v>242</v>
+      </c>
       <c r="AC32" s="2">
         <v>921</v>
       </c>
@@ -3448,7 +3595,16 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="33" spans="29:30" x14ac:dyDescent="0.25">
+    <row r="33" spans="22:30" x14ac:dyDescent="0.25">
+      <c r="V33" s="2">
+        <v>908</v>
+      </c>
+      <c r="W33" s="2">
+        <v>123</v>
+      </c>
+      <c r="X33" s="1" t="s">
+        <v>244</v>
+      </c>
       <c r="AC33" s="2">
         <v>902</v>
       </c>
@@ -3456,7 +3612,16 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="34" spans="29:30" x14ac:dyDescent="0.25">
+    <row r="34" spans="22:30" x14ac:dyDescent="0.25">
+      <c r="V34" s="2">
+        <v>910</v>
+      </c>
+      <c r="W34" s="2">
+        <v>109</v>
+      </c>
+      <c r="X34" s="1" t="s">
+        <v>245</v>
+      </c>
       <c r="AC34" s="2">
         <v>923</v>
       </c>
@@ -3464,7 +3629,16 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="35" spans="29:30" x14ac:dyDescent="0.25">
+    <row r="35" spans="22:30" x14ac:dyDescent="0.25">
+      <c r="V35" s="2">
+        <v>911</v>
+      </c>
+      <c r="W35" s="2">
+        <v>124</v>
+      </c>
+      <c r="X35" s="1" t="s">
+        <v>246</v>
+      </c>
       <c r="AC35" s="2">
         <v>907</v>
       </c>
@@ -3472,7 +3646,16 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="36" spans="29:30" x14ac:dyDescent="0.25">
+    <row r="36" spans="22:30" x14ac:dyDescent="0.25">
+      <c r="V36" s="2">
+        <v>912</v>
+      </c>
+      <c r="W36" s="2">
+        <v>101</v>
+      </c>
+      <c r="X36" s="1" t="s">
+        <v>247</v>
+      </c>
       <c r="AC36" s="2">
         <v>927</v>
       </c>
@@ -3480,7 +3663,16 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="37" spans="29:30" x14ac:dyDescent="0.25">
+    <row r="37" spans="22:30" x14ac:dyDescent="0.25">
+      <c r="V37" s="2">
+        <v>912</v>
+      </c>
+      <c r="W37" s="2">
+        <v>122</v>
+      </c>
+      <c r="X37" s="1" t="s">
+        <v>248</v>
+      </c>
       <c r="AC37" s="2">
         <v>901</v>
       </c>
@@ -3488,7 +3680,16 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="38" spans="29:30" x14ac:dyDescent="0.25">
+    <row r="38" spans="22:30" x14ac:dyDescent="0.25">
+      <c r="V38" s="2">
+        <v>913</v>
+      </c>
+      <c r="W38" s="2">
+        <v>104</v>
+      </c>
+      <c r="X38" s="1" t="s">
+        <v>249</v>
+      </c>
       <c r="AC38" s="2">
         <v>914</v>
       </c>
@@ -3496,7 +3697,16 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="39" spans="29:30" x14ac:dyDescent="0.25">
+    <row r="39" spans="22:30" x14ac:dyDescent="0.25">
+      <c r="V39" s="2">
+        <v>913</v>
+      </c>
+      <c r="W39" s="2">
+        <v>102</v>
+      </c>
+      <c r="X39" s="1" t="s">
+        <v>250</v>
+      </c>
       <c r="AC39" s="2">
         <v>906</v>
       </c>
@@ -3504,13 +3714,128 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="40" spans="29:30" x14ac:dyDescent="0.25">
+    <row r="40" spans="22:30" x14ac:dyDescent="0.25">
+      <c r="V40" s="2">
+        <v>914</v>
+      </c>
+      <c r="W40" s="2">
+        <v>115</v>
+      </c>
+      <c r="X40" s="1" t="s">
+        <v>251</v>
+      </c>
       <c r="AC40" s="2">
         <v>904</v>
       </c>
       <c r="AD40" s="2">
         <v>1013</v>
       </c>
+    </row>
+    <row r="41" spans="22:30" x14ac:dyDescent="0.25">
+      <c r="V41" s="2">
+        <v>915</v>
+      </c>
+      <c r="W41" s="2">
+        <v>123</v>
+      </c>
+      <c r="X41" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="42" spans="22:30" x14ac:dyDescent="0.25">
+      <c r="V42" s="2">
+        <v>920</v>
+      </c>
+      <c r="W42" s="2">
+        <v>124</v>
+      </c>
+      <c r="X42" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="43" spans="22:30" x14ac:dyDescent="0.25">
+      <c r="V43" s="2">
+        <v>923</v>
+      </c>
+      <c r="W43" s="2">
+        <v>123</v>
+      </c>
+      <c r="X43" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="44" spans="22:30" x14ac:dyDescent="0.25">
+      <c r="V44" s="2">
+        <v>919</v>
+      </c>
+      <c r="W44" s="2">
+        <v>124</v>
+      </c>
+      <c r="X44" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="45" spans="22:30" x14ac:dyDescent="0.25">
+      <c r="V45" s="2">
+        <v>916</v>
+      </c>
+      <c r="W45" s="2">
+        <v>107</v>
+      </c>
+      <c r="X45" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="46" spans="22:30" x14ac:dyDescent="0.25">
+      <c r="V46" s="2">
+        <v>917</v>
+      </c>
+      <c r="W46" s="2">
+        <v>120</v>
+      </c>
+      <c r="X46" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="47" spans="22:30" x14ac:dyDescent="0.25">
+      <c r="V47" s="2">
+        <v>918</v>
+      </c>
+      <c r="W47" s="2">
+        <v>106</v>
+      </c>
+      <c r="X47" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="48" spans="22:30" x14ac:dyDescent="0.25">
+      <c r="V48" s="2">
+        <v>921</v>
+      </c>
+      <c r="W48" s="2">
+        <v>107</v>
+      </c>
+      <c r="X48" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="49" spans="22:24" x14ac:dyDescent="0.25">
+      <c r="V49" s="2">
+        <v>922</v>
+      </c>
+      <c r="W49" s="2">
+        <v>123</v>
+      </c>
+      <c r="X49" s="1"/>
+    </row>
+    <row r="50" spans="22:24" x14ac:dyDescent="0.25">
+      <c r="V50" s="2">
+        <v>909</v>
+      </c>
+      <c r="W50" s="2">
+        <v>119</v>
+      </c>
+      <c r="X50" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="9">

--- a/Home Covid19/Movie/MovieDB.xlsx
+++ b/Home Covid19/Movie/MovieDB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Saleel\Downloads\new Assignments\New Assignment on DBT\Movie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90C327B3-08F3-4D8A-A028-96AEF8524546}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFC8C93A-D4F5-4D9B-A379-621D9B0CEE1C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{E3092057-7F3E-411A-8201-69745A4B205E}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="260">
   <si>
     <t># mov_id</t>
   </si>
@@ -808,13 +808,16 @@
   </si>
   <si>
     <t>Monica Geller</t>
+  </si>
+  <si>
+    <t>Police</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -840,13 +843,6 @@
     <font>
       <sz val="13"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -908,7 +904,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -937,10 +933,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1257,8 +1249,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F649B49D-55F8-46F0-BC8F-5BA8D4DD8ED7}">
   <dimension ref="B1:AL50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="X49" sqref="X49"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1274,13 +1266,13 @@
     <col min="9" max="9" width="2.140625" customWidth="1"/>
     <col min="10" max="13" width="13.42578125" customWidth="1"/>
     <col min="14" max="14" width="2.140625" customWidth="1"/>
-    <col min="15" max="15" width="8.85546875" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="12.42578125" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="18.42578125" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="8.85546875" customWidth="1"/>
+    <col min="16" max="16" width="12.42578125" customWidth="1"/>
+    <col min="17" max="17" width="18.42578125" customWidth="1"/>
     <col min="18" max="18" width="2.140625" customWidth="1"/>
-    <col min="19" max="19" width="9.85546875" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="11.28515625" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="2.140625" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="9.85546875" customWidth="1"/>
+    <col min="20" max="20" width="11.28515625" customWidth="1"/>
+    <col min="21" max="21" width="2.140625" customWidth="1"/>
     <col min="22" max="22" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="7.85546875" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="22" bestFit="1" customWidth="1"/>
@@ -3393,13 +3385,13 @@
       <c r="M26" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="V26" s="12">
+      <c r="V26" s="2">
         <v>901</v>
       </c>
-      <c r="W26" s="12">
+      <c r="W26" s="2">
         <v>105</v>
       </c>
-      <c r="X26" s="13" t="s">
+      <c r="X26" s="1" t="s">
         <v>237</v>
       </c>
       <c r="AC26" s="2">
@@ -3826,7 +3818,9 @@
       <c r="W49" s="2">
         <v>123</v>
       </c>
-      <c r="X49" s="1"/>
+      <c r="X49" s="1" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="50" spans="22:24" x14ac:dyDescent="0.25">
       <c r="V50" s="2">
@@ -3835,7 +3829,9 @@
       <c r="W50" s="2">
         <v>119</v>
       </c>
-      <c r="X50" s="1"/>
+      <c r="X50" s="1" t="s">
+        <v>240</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="9">

--- a/Home Covid19/Movie/MovieDB.xlsx
+++ b/Home Covid19/Movie/MovieDB.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Saleel\Downloads\new Assignments\New Assignment on DBT\Movie\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFC8C93A-D4F5-4D9B-A379-621D9B0CEE1C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CDFBC7C-00A6-48B8-AAF6-11F75E0775E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{E3092057-7F3E-411A-8201-69745A4B205E}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="250">
   <si>
     <t># mov_id</t>
   </si>
@@ -741,76 +741,46 @@
     <t>actor Table</t>
   </si>
   <si>
-    <t>Super Queen</t>
-  </si>
-  <si>
-    <t>Mr. Jonson</t>
-  </si>
-  <si>
-    <t>Best Man</t>
-  </si>
-  <si>
-    <t>Gun Boy</t>
-  </si>
-  <si>
-    <t>Judge</t>
-  </si>
-  <si>
-    <t>Bad Man</t>
-  </si>
-  <si>
-    <t>Villain</t>
-  </si>
-  <si>
-    <t>Murray Close</t>
-  </si>
-  <si>
-    <t>Miramax</t>
-  </si>
-  <si>
-    <t>A24</t>
-  </si>
-  <si>
-    <t>Fox Searchlight</t>
-  </si>
-  <si>
-    <t>Lionsgate</t>
-  </si>
-  <si>
-    <t>Alex Bailey</t>
-  </si>
-  <si>
-    <t>Weinstein Company</t>
-  </si>
-  <si>
-    <t>Worker</t>
-  </si>
-  <si>
-    <t>PickUP Boy</t>
-  </si>
-  <si>
-    <t>Hotel Manager</t>
-  </si>
-  <si>
-    <t>CID</t>
-  </si>
-  <si>
-    <t>Pilot</t>
-  </si>
-  <si>
-    <t>Fighter</t>
-  </si>
-  <si>
-    <t>Dancer</t>
-  </si>
-  <si>
-    <t>Father Charls</t>
-  </si>
-  <si>
-    <t>Monica Geller</t>
-  </si>
-  <si>
-    <t>Police</t>
+    <t>M</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>James</t>
+  </si>
+  <si>
+    <t>Camer</t>
+  </si>
+  <si>
+    <t>Kill</t>
+  </si>
+  <si>
+    <t>Joy</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>AbH</t>
+  </si>
+  <si>
+    <t>Stress</t>
+  </si>
+  <si>
+    <t>Don</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scientific </t>
+  </si>
+  <si>
+    <t>Sci-fi</t>
+  </si>
+  <si>
+    <t>Fantasy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Magic </t>
   </si>
 </sst>
 </file>
@@ -923,16 +893,16 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1247,10 +1217,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F649B49D-55F8-46F0-BC8F-5BA8D4DD8ED7}">
-  <dimension ref="B1:AL50"/>
+  <dimension ref="B1:AL40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="L7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O24" sqref="O24:Q25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1293,53 +1263,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:38" s="4" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="J1" s="9" t="s">
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="J1" s="11" t="s">
         <v>235</v>
       </c>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
       <c r="M1" s="7"/>
-      <c r="O1" s="9" t="s">
+      <c r="O1" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
-      <c r="S1" s="8" t="s">
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
+      <c r="S1" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="T1" s="8"/>
-      <c r="V1" s="9" t="s">
+      <c r="T1" s="10"/>
+      <c r="V1" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="W1" s="9"/>
-      <c r="X1" s="9"/>
-      <c r="Z1" s="8" t="s">
+      <c r="W1" s="11"/>
+      <c r="X1" s="11"/>
+      <c r="Z1" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="AA1" s="8"/>
-      <c r="AC1" s="8" t="s">
+      <c r="AA1" s="10"/>
+      <c r="AC1" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="AD1" s="8"/>
-      <c r="AF1" s="8" t="s">
+      <c r="AD1" s="10"/>
+      <c r="AF1" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="AG1" s="8"/>
-      <c r="AH1" s="8"/>
-      <c r="AI1" s="8"/>
-      <c r="AK1" s="8" t="s">
+      <c r="AG1" s="10"/>
+      <c r="AH1" s="10"/>
+      <c r="AI1" s="10"/>
+      <c r="AK1" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="AL1" s="8"/>
+      <c r="AL1" s="10"/>
     </row>
     <row r="2" spans="2:38" s="6" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
@@ -1479,13 +1449,13 @@
       <c r="T3" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="V3" s="10">
+      <c r="V3" s="2">
         <v>901</v>
       </c>
-      <c r="W3" s="10">
+      <c r="W3" s="2">
         <v>101</v>
       </c>
-      <c r="X3" s="11" t="s">
+      <c r="X3" s="1" t="s">
         <v>133</v>
       </c>
       <c r="Z3" s="2">
@@ -1568,13 +1538,13 @@
       <c r="T4" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="V4" s="10">
+      <c r="V4" s="2">
         <v>902</v>
       </c>
-      <c r="W4" s="10">
+      <c r="W4" s="2">
         <v>102</v>
       </c>
-      <c r="X4" s="11" t="s">
+      <c r="X4" s="1" t="s">
         <v>134</v>
       </c>
       <c r="Z4" s="2">
@@ -1657,13 +1627,13 @@
       <c r="T5" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="V5" s="10">
+      <c r="V5" s="2">
         <v>903</v>
       </c>
-      <c r="W5" s="10">
+      <c r="W5" s="2">
         <v>103</v>
       </c>
-      <c r="X5" s="11" t="s">
+      <c r="X5" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z5" s="2">
@@ -1740,19 +1710,19 @@
       <c r="Q6" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="S6" s="2">
+      <c r="S6" s="8">
         <v>1004</v>
       </c>
-      <c r="T6" s="1" t="s">
+      <c r="T6" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="V6" s="10">
+      <c r="V6" s="2">
         <v>904</v>
       </c>
-      <c r="W6" s="10">
+      <c r="W6" s="2">
         <v>104</v>
       </c>
-      <c r="X6" s="11" t="s">
+      <c r="X6" s="1" t="s">
         <v>76</v>
       </c>
       <c r="Z6" s="2">
@@ -2630,6 +2600,12 @@
       <c r="Q16" s="1" t="s">
         <v>97</v>
       </c>
+      <c r="S16" s="8">
+        <v>1014</v>
+      </c>
+      <c r="T16" s="9" t="s">
+        <v>246</v>
+      </c>
       <c r="V16" s="2">
         <v>915</v>
       </c>
@@ -2713,6 +2689,12 @@
       <c r="Q17" s="1" t="s">
         <v>99</v>
       </c>
+      <c r="S17" s="8">
+        <v>1015</v>
+      </c>
+      <c r="T17" s="9" t="s">
+        <v>247</v>
+      </c>
       <c r="V17" s="2">
         <v>916</v>
       </c>
@@ -2796,6 +2778,12 @@
       <c r="Q18" s="1" t="s">
         <v>101</v>
       </c>
+      <c r="S18" s="8">
+        <v>1016</v>
+      </c>
+      <c r="T18" s="9" t="s">
+        <v>248</v>
+      </c>
       <c r="V18" s="2">
         <v>917</v>
       </c>
@@ -2879,6 +2867,12 @@
       <c r="Q19" s="1" t="s">
         <v>103</v>
       </c>
+      <c r="S19" s="8">
+        <v>1017</v>
+      </c>
+      <c r="T19" s="9" t="s">
+        <v>249</v>
+      </c>
       <c r="V19" s="2">
         <v>918</v>
       </c>
@@ -3255,13 +3249,13 @@
       <c r="M24" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="O24" s="2">
+      <c r="O24" s="8">
         <v>222</v>
       </c>
-      <c r="P24" s="1" t="s">
+      <c r="P24" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="Q24" s="1" t="s">
+      <c r="Q24" s="9" t="s">
         <v>113</v>
       </c>
       <c r="V24" s="2">
@@ -3320,13 +3314,13 @@
       <c r="M25" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="O25" s="2">
+      <c r="O25" s="8">
         <v>223</v>
       </c>
-      <c r="P25" s="1" t="s">
+      <c r="P25" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="Q25" s="1" t="s">
+      <c r="Q25" s="9" t="s">
         <v>115</v>
       </c>
       <c r="V25" s="2">
@@ -3385,15 +3379,6 @@
       <c r="M26" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="V26" s="2">
-        <v>901</v>
-      </c>
-      <c r="W26" s="2">
-        <v>105</v>
-      </c>
-      <c r="X26" s="1" t="s">
-        <v>237</v>
-      </c>
       <c r="AC26" s="2">
         <v>911</v>
       </c>
@@ -3423,14 +3408,17 @@
       <c r="H27" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="V27" s="2">
-        <v>902</v>
-      </c>
-      <c r="W27" s="2">
-        <v>113</v>
-      </c>
-      <c r="X27" s="1" t="s">
+      <c r="J27" s="8">
+        <v>125</v>
+      </c>
+      <c r="K27" s="8" t="s">
         <v>238</v>
+      </c>
+      <c r="L27" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="M27" s="8" t="s">
+        <v>236</v>
       </c>
       <c r="AC27" s="2">
         <v>908</v>
@@ -3461,14 +3449,17 @@
       <c r="H28" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="V28" s="2">
-        <v>903</v>
-      </c>
-      <c r="W28" s="2">
-        <v>122</v>
-      </c>
-      <c r="X28" s="1" t="s">
-        <v>236</v>
+      <c r="J28" s="8">
+        <v>126</v>
+      </c>
+      <c r="K28" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="L28" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="M28" s="8" t="s">
+        <v>237</v>
       </c>
       <c r="AC28" s="2">
         <v>913</v>
@@ -3499,14 +3490,17 @@
       <c r="H29" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="V29" s="2">
-        <v>904</v>
-      </c>
-      <c r="W29" s="2">
-        <v>111</v>
-      </c>
-      <c r="X29" s="1" t="s">
-        <v>239</v>
+      <c r="J29" s="8">
+        <v>127</v>
+      </c>
+      <c r="K29" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="L29" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="M29" s="8" t="s">
+        <v>236</v>
       </c>
       <c r="AC29" s="2">
         <v>926</v>
@@ -3537,14 +3531,17 @@
       <c r="H30" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="V30" s="2">
-        <v>905</v>
-      </c>
-      <c r="W30" s="2">
-        <v>121</v>
-      </c>
-      <c r="X30" s="1" t="s">
-        <v>240</v>
+      <c r="J30" s="8">
+        <v>127</v>
+      </c>
+      <c r="K30" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="L30" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="M30" s="8" t="s">
+        <v>236</v>
       </c>
       <c r="AC30" s="2">
         <v>928</v>
@@ -3554,15 +3551,6 @@
       </c>
     </row>
     <row r="31" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="V31" s="2">
-        <v>906</v>
-      </c>
-      <c r="W31" s="2">
-        <v>101</v>
-      </c>
-      <c r="X31" s="1" t="s">
-        <v>241</v>
-      </c>
       <c r="AC31" s="2">
         <v>918</v>
       </c>
@@ -3571,15 +3559,6 @@
       </c>
     </row>
     <row r="32" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="V32" s="2">
-        <v>907</v>
-      </c>
-      <c r="W32" s="2">
-        <v>101</v>
-      </c>
-      <c r="X32" s="1" t="s">
-        <v>242</v>
-      </c>
       <c r="AC32" s="2">
         <v>921</v>
       </c>
@@ -3587,16 +3566,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="33" spans="22:30" x14ac:dyDescent="0.25">
-      <c r="V33" s="2">
-        <v>908</v>
-      </c>
-      <c r="W33" s="2">
-        <v>123</v>
-      </c>
-      <c r="X33" s="1" t="s">
-        <v>244</v>
-      </c>
+    <row r="33" spans="29:30" x14ac:dyDescent="0.25">
       <c r="AC33" s="2">
         <v>902</v>
       </c>
@@ -3604,16 +3574,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="34" spans="22:30" x14ac:dyDescent="0.25">
-      <c r="V34" s="2">
-        <v>910</v>
-      </c>
-      <c r="W34" s="2">
-        <v>109</v>
-      </c>
-      <c r="X34" s="1" t="s">
-        <v>245</v>
-      </c>
+    <row r="34" spans="29:30" x14ac:dyDescent="0.25">
       <c r="AC34" s="2">
         <v>923</v>
       </c>
@@ -3621,16 +3582,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="35" spans="22:30" x14ac:dyDescent="0.25">
-      <c r="V35" s="2">
-        <v>911</v>
-      </c>
-      <c r="W35" s="2">
-        <v>124</v>
-      </c>
-      <c r="X35" s="1" t="s">
-        <v>246</v>
-      </c>
+    <row r="35" spans="29:30" x14ac:dyDescent="0.25">
       <c r="AC35" s="2">
         <v>907</v>
       </c>
@@ -3638,16 +3590,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="36" spans="22:30" x14ac:dyDescent="0.25">
-      <c r="V36" s="2">
-        <v>912</v>
-      </c>
-      <c r="W36" s="2">
-        <v>101</v>
-      </c>
-      <c r="X36" s="1" t="s">
-        <v>247</v>
-      </c>
+    <row r="36" spans="29:30" x14ac:dyDescent="0.25">
       <c r="AC36" s="2">
         <v>927</v>
       </c>
@@ -3655,16 +3598,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="37" spans="22:30" x14ac:dyDescent="0.25">
-      <c r="V37" s="2">
-        <v>912</v>
-      </c>
-      <c r="W37" s="2">
-        <v>122</v>
-      </c>
-      <c r="X37" s="1" t="s">
-        <v>248</v>
-      </c>
+    <row r="37" spans="29:30" x14ac:dyDescent="0.25">
       <c r="AC37" s="2">
         <v>901</v>
       </c>
@@ -3672,16 +3606,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="38" spans="22:30" x14ac:dyDescent="0.25">
-      <c r="V38" s="2">
-        <v>913</v>
-      </c>
-      <c r="W38" s="2">
-        <v>104</v>
-      </c>
-      <c r="X38" s="1" t="s">
-        <v>249</v>
-      </c>
+    <row r="38" spans="29:30" x14ac:dyDescent="0.25">
       <c r="AC38" s="2">
         <v>914</v>
       </c>
@@ -3689,16 +3614,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="39" spans="22:30" x14ac:dyDescent="0.25">
-      <c r="V39" s="2">
-        <v>913</v>
-      </c>
-      <c r="W39" s="2">
-        <v>102</v>
-      </c>
-      <c r="X39" s="1" t="s">
-        <v>250</v>
-      </c>
+    <row r="39" spans="29:30" x14ac:dyDescent="0.25">
       <c r="AC39" s="2">
         <v>906</v>
       </c>
@@ -3706,131 +3622,12 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="40" spans="22:30" x14ac:dyDescent="0.25">
-      <c r="V40" s="2">
-        <v>914</v>
-      </c>
-      <c r="W40" s="2">
-        <v>115</v>
-      </c>
-      <c r="X40" s="1" t="s">
-        <v>251</v>
-      </c>
+    <row r="40" spans="29:30" x14ac:dyDescent="0.25">
       <c r="AC40" s="2">
         <v>904</v>
       </c>
       <c r="AD40" s="2">
         <v>1013</v>
-      </c>
-    </row>
-    <row r="41" spans="22:30" x14ac:dyDescent="0.25">
-      <c r="V41" s="2">
-        <v>915</v>
-      </c>
-      <c r="W41" s="2">
-        <v>123</v>
-      </c>
-      <c r="X41" s="1" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="42" spans="22:30" x14ac:dyDescent="0.25">
-      <c r="V42" s="2">
-        <v>920</v>
-      </c>
-      <c r="W42" s="2">
-        <v>124</v>
-      </c>
-      <c r="X42" s="1" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="43" spans="22:30" x14ac:dyDescent="0.25">
-      <c r="V43" s="2">
-        <v>923</v>
-      </c>
-      <c r="W43" s="2">
-        <v>123</v>
-      </c>
-      <c r="X43" s="1" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="44" spans="22:30" x14ac:dyDescent="0.25">
-      <c r="V44" s="2">
-        <v>919</v>
-      </c>
-      <c r="W44" s="2">
-        <v>124</v>
-      </c>
-      <c r="X44" s="1" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="45" spans="22:30" x14ac:dyDescent="0.25">
-      <c r="V45" s="2">
-        <v>916</v>
-      </c>
-      <c r="W45" s="2">
-        <v>107</v>
-      </c>
-      <c r="X45" s="1" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="46" spans="22:30" x14ac:dyDescent="0.25">
-      <c r="V46" s="2">
-        <v>917</v>
-      </c>
-      <c r="W46" s="2">
-        <v>120</v>
-      </c>
-      <c r="X46" s="1" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="47" spans="22:30" x14ac:dyDescent="0.25">
-      <c r="V47" s="2">
-        <v>918</v>
-      </c>
-      <c r="W47" s="2">
-        <v>106</v>
-      </c>
-      <c r="X47" s="1" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="48" spans="22:30" x14ac:dyDescent="0.25">
-      <c r="V48" s="2">
-        <v>921</v>
-      </c>
-      <c r="W48" s="2">
-        <v>107</v>
-      </c>
-      <c r="X48" s="1" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="49" spans="22:24" x14ac:dyDescent="0.25">
-      <c r="V49" s="2">
-        <v>922</v>
-      </c>
-      <c r="W49" s="2">
-        <v>123</v>
-      </c>
-      <c r="X49" s="1" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="50" spans="22:24" x14ac:dyDescent="0.25">
-      <c r="V50" s="2">
-        <v>909</v>
-      </c>
-      <c r="W50" s="2">
-        <v>119</v>
-      </c>
-      <c r="X50" s="1" t="s">
-        <v>240</v>
       </c>
     </row>
   </sheetData>
